--- a/output/inference_results/test_sheets/batch_001/test_sheet (4).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (4).xlsx
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D-BIL直接胆红素</t>
+          <t>直接胆红素</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>↑0-40</t>
+          <t>0-40</t>
         </is>
       </c>
     </row>
@@ -667,50 +667,38 @@
           <t>2.72</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>mmol/L</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Apo-A载脂蛋白A1</t>
+          <t>载脂蛋白A1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>g/L</t>
-        </is>
-      </c>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Apo-B载脂蛋白-B</t>
+          <t>载脂蛋白A1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>g/L</t>
-        </is>
-      </c>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>apoA/载脂蛋白比值</t>
+          <t>载脂蛋白比值</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -722,7 +710,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBsAg乙肝表面抗原</t>
+          <t>乙肝表面抗原</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -734,7 +722,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mmol/LB-MGB微球蛋白</t>
+          <t>B微球蛋白</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -742,11 +730,7 @@
           <t>1.15</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/output/inference_results/test_sheets/batch_001/test_sheet (4).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (4).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,21 @@
           <t>参考值</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>结果</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>参考值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -449,11 +464,18 @@
           <t>12.0</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0-20</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CREA肌酐</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -466,11 +488,18 @@
           <t>5.5</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0-7</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>尿酸</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +517,21 @@
           <t>67-83</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>葡萄糖</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.8-6.2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +549,21 @@
           <t>38-53</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>总胆固醇</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.9-6.0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +581,21 @@
           <t>20-45</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>甘油三酯</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.55-1.7</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -534,11 +608,18 @@
           <t>54</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0-40</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>载脂蛋白A1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -551,11 +632,18 @@
           <t>33</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0-40</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>载脂蛋白A1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -573,6 +661,17 @@
           <t>20-140</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>载脂蛋白比值</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,6 +689,17 @@
           <t>16-73</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>乙肝表面抗原</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,130 +717,17 @@
           <t>2.8-7.2</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CREA肌酐</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>53.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>尿酸</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>294</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>葡萄糖</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>总胆固醇</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>甘油三酯</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>载脂蛋白A1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>载脂蛋白A1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>载脂蛋白比值</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>乙肝表面抗原</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>B微球蛋白</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1.15</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
